--- a/data/trans_dic/P57_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P57_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,59; 26,78</t>
+          <t>20,5; 26,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>29,84; 37,87</t>
+          <t>29,43; 37,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,49; 20,66</t>
+          <t>15,41; 20,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,3; 29,51</t>
+          <t>24,23; 29,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,34; 22,18</t>
+          <t>18,64; 22,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>27,26; 31,81</t>
+          <t>27,18; 31,88</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>28,84; 33,05</t>
+          <t>28,63; 32,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>49,01; 67,5</t>
+          <t>49,24; 71,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,41; 30,4</t>
+          <t>26,32; 30,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29,72; 45,01</t>
+          <t>27,67; 44,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,04; 30,96</t>
+          <t>28,17; 31,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>41,13; 54,61</t>
+          <t>41,56; 55,94</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>34,42; 42,72</t>
+          <t>33,42; 42,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>43,41; 52,23</t>
+          <t>43,88; 52,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,97; 38,44</t>
+          <t>29,82; 38,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>41,74; 48,66</t>
+          <t>42,11; 48,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,21; 39,37</t>
+          <t>33,49; 39,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>43,75; 49,55</t>
+          <t>43,85; 49,38</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>28,96; 32,12</t>
+          <t>28,99; 32,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>46,23; 63,46</t>
+          <t>46,31; 62,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,91; 28,07</t>
+          <t>25,01; 28,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,84; 40,92</t>
+          <t>30,91; 41,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,2; 29,47</t>
+          <t>27,22; 29,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>40,67; 49,92</t>
+          <t>40,67; 49,79</t>
         </is>
       </c>
     </row>
@@ -928,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con autopercepción de la felicidad mayor o igual a 9 (Likert 0 a 10)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>177326</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>169501</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>178321</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>199238</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>355647</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>368740</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>154219; 201775</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>149308; 191313</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>152683; 203894</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>180074; 219643</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>324898; 390804</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>339947; 398634</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>904</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1233</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2137</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>636220</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1264830</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>561776</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>882649</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1197996</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2147479</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>591671; 678246</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1126693; 1632476</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>520736; 602110</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>617365; 1002881</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1139476; 1253962</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1878211; 2528382</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>734</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>209764</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>308808</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>187630</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>298900</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>397393</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>607709</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>182101; 233327</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>283495; 338535</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>162800; 208717</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>277308; 321836</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>365358; 430897</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>572059; 644163</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>967</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1413</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1863</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3428</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1023310</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1743139</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>927727</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1380788</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1951036</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3123927</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>975293; 1076395</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1593769; 2136940</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>879365; 984428</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1122808; 1494255</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1872948; 2025357</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2876969; 3522634</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>